--- a/婚礼/婚庆公司.xlsx
+++ b/婚礼/婚庆公司.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>5.服务内容：主持人、摄像、摄影、鲜花、化妆、充气虹门、礼炮、气球、背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳缘婚庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137-7231-3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大垸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +497,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,6 +574,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
